--- a/data/trans_camb/P1413-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1413-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.913919228662119</v>
+        <v>-3.63154285519439</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.553372676502854</v>
+        <v>-5.318091639419904</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.485036270974057</v>
+        <v>-2.178427096898308</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.232537332542628</v>
+        <v>-3.483435075882225</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.488433584033634</v>
+        <v>-4.578441272911197</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3310851413564789</v>
+        <v>0.2109755676028771</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.976008120601696</v>
+        <v>-2.934598126170805</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.363275564816794</v>
+        <v>-4.34232270156748</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.01705576240044443</v>
+        <v>0.1370191500273616</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9147477021114974</v>
+        <v>0.7532784036646357</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.759906345974218</v>
+        <v>-1.572210790228481</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.323018441540619</v>
+        <v>6.180295934371848</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.082994188117079</v>
+        <v>1.640133787741302</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2301358802887479</v>
+        <v>0.1948002836449145</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.69128347461817</v>
+        <v>10.67004041233895</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4865583352793098</v>
+        <v>0.6657927446284634</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.294198768888849</v>
+        <v>-1.206179951246519</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.315447139240258</v>
+        <v>6.19491790246671</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7475992108725047</v>
+        <v>-0.7194133751639379</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5456494551661831</v>
+        <v>-0.510341678738171</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5435407249551025</v>
+        <v>-0.5799298418963155</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7432512477209049</v>
+        <v>-0.7386996995342757</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02955067873455829</v>
+        <v>-0.004123512605692208</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5711459175694141</v>
+        <v>-0.5555742922877848</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8161786230657889</v>
+        <v>-0.8068209623866929</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.003714138009776534</v>
+        <v>0.005498488534542092</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3717494262726075</v>
+        <v>0.3690461403190702</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3571799158691379</v>
+        <v>-0.4530983824481762</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.248008136064084</v>
+        <v>2.100195302114535</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6884941953276232</v>
+        <v>0.5143561576777925</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1091766849278818</v>
+        <v>0.08084216856410509</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.98658870567063</v>
+        <v>2.804143035618461</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.174918498024229</v>
+        <v>0.1887835408667943</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.327447169151088</v>
+        <v>-0.3124941136514083</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.802744676993105</v>
+        <v>1.71158009596173</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-4.242697119500506</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.004470046900520441</v>
+        <v>-0.004470046900521829</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-1.555746293889024</v>
@@ -869,7 +869,7 @@
         <v>-3.97960716950032</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.369332646898495</v>
+        <v>1.369332646898498</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.903327070406641</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.885871012412253</v>
+        <v>-4.629892556922747</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.885305176680734</v>
+        <v>-6.654001240274257</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.084425438570836</v>
+        <v>-3.273995726355985</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.792715122493478</v>
+        <v>-5.242820724392282</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-7.207080509407549</v>
+        <v>-7.221258070267939</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.226348438385747</v>
+        <v>-2.433442644052838</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.046429452248191</v>
+        <v>-3.865423457510148</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-6.143432387446122</v>
+        <v>-6.033376113754748</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.609369735422716</v>
+        <v>-1.723264538709171</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3460361007630526</v>
+        <v>0.6976002679284727</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.951120870963137</v>
+        <v>-1.604208052715596</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.860481950621161</v>
+        <v>3.988339981447745</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.778244552025039</v>
+        <v>1.6564931686225</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.9943006231102922</v>
+        <v>-0.6413477416522463</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.31409909971891</v>
+        <v>5.456363731026586</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03791634298019605</v>
+        <v>0.2523787706100369</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-2.255522791496044</v>
+        <v>-2.230119789195432</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.526764937634326</v>
+        <v>3.493912912300585</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.602041774928589</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.0006343028724897984</v>
+        <v>-0.0006343028724899953</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1606081439214086</v>
@@ -974,7 +974,7 @@
         <v>-0.4108364734921041</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1413636501614864</v>
+        <v>0.1413636501614867</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2304206012803535</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5716575815547</v>
+        <v>-0.5719858857675537</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8100036741869828</v>
+        <v>-0.7880931834207533</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3871678732550038</v>
+        <v>-0.4086324925105632</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4222390174065184</v>
+        <v>-0.4552856449071894</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6318768519545692</v>
+        <v>-0.6216578129556</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2121424497152176</v>
+        <v>-0.225258762135264</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.430124360590212</v>
+        <v>-0.4146086207259985</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6416571560845087</v>
+        <v>-0.6456229070089994</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.181193845403849</v>
+        <v>-0.1873848222561263</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.07735128812305382</v>
+        <v>0.1334917833313663</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2721691812552613</v>
+        <v>-0.2697643552450274</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6839722280209414</v>
+        <v>0.7196057451846349</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2229717411739582</v>
+        <v>0.219706078423236</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1240144176172238</v>
+        <v>-0.07970229346136</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6536806020757381</v>
+        <v>0.7018174047163741</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.00613286074731199</v>
+        <v>0.03712563799011112</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2922774079134002</v>
+        <v>-0.302997990695197</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4700080786924873</v>
+        <v>0.4858429074488075</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-7.523583093186316</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-3.962850281649141</v>
+        <v>-3.96285028164914</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.9857081690844732</v>
@@ -1083,7 +1083,7 @@
         <v>-5.304358711442646</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.817839448109258</v>
+        <v>6.817839448109261</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-4.442955221430223</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.94858265516063</v>
+        <v>-11.71263415212794</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.65758302912508</v>
+        <v>-11.20103322019312</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.912506375257496</v>
+        <v>-7.856598395411231</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.539279729326549</v>
+        <v>-4.428442883537345</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.388923856275916</v>
+        <v>-8.894168175125852</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.93023705519105</v>
+        <v>3.080041494395905</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.009034969277927</v>
+        <v>-7.05423946718534</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.02361538101187</v>
+        <v>-8.880957624245161</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.21767644461988</v>
+        <v>-1.204439754899879</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.930659382746159</v>
+        <v>-4.823872516784743</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.063546230507069</v>
+        <v>-4.180526873046881</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.08370595035887</v>
+        <v>-0.208035505779102</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.942180677859283</v>
+        <v>2.444067549408401</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.732947166588285</v>
+        <v>-2.061877368097058</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.89234741905113</v>
+        <v>11.01858734872842</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-2.127139474904328</v>
+        <v>-2.113749856953717</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-3.995509412198966</v>
+        <v>-3.973946194575786</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.944256989895701</v>
+        <v>4.095658453143121</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.5249144882294235</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2764849542773797</v>
+        <v>-0.2764849542773796</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.07036259927697393</v>
@@ -1188,7 +1188,7 @@
         <v>-0.3786399242092308</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4866764018681332</v>
+        <v>0.4866764018681333</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.3136629084464654</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7022894918912267</v>
+        <v>-0.7009969024305525</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6678838006303011</v>
+        <v>-0.6718901937771133</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4831719169302736</v>
+        <v>-0.4685722899749268</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2860340869446237</v>
+        <v>-0.281634638477489</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.536580557737576</v>
+        <v>-0.5571610156354186</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1781362819804956</v>
+        <v>0.1955274391775453</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4488216558925964</v>
+        <v>-0.4510836112055743</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5676125167427873</v>
+        <v>-0.5725076574800955</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.08048104464114471</v>
+        <v>-0.07950914547593235</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.3858881390285304</v>
+        <v>-0.3726939744450754</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.3196880877081695</v>
+        <v>-0.3321392260348156</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.003657614665462931</v>
+        <v>-0.01075590649578102</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2468505884106124</v>
+        <v>0.2134233831736922</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1479737359503162</v>
+        <v>-0.1538678366227197</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8944978004860775</v>
+        <v>0.8894643156821855</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1586830832767754</v>
+        <v>-0.1590778608256273</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.3056674528037553</v>
+        <v>-0.3159264140181126</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2932301875687252</v>
+        <v>0.3161895830821814</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-9.535076731144162</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.802326053738527</v>
+        <v>5.802326053738533</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-7.834446766786746</v>
@@ -1306,7 +1306,7 @@
         <v>-9.85728562157826</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.49325024369157</v>
+        <v>3.493250243691568</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.54836896683379</v>
+        <v>-14.64379956552947</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.67724454829457</v>
+        <v>-14.83471132304063</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.456817888915672</v>
+        <v>-3.58347853474406</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.40712834971258</v>
+        <v>-10.12546234489767</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-13.9773220146759</v>
+        <v>-14.07553412687147</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.392799196668821</v>
+        <v>1.349510944920065</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-11.25557020005283</v>
+        <v>-11.02134196046624</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-12.84052709374106</v>
+        <v>-13.19084070022927</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4138241785891733</v>
+        <v>0.3484733377007925</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-6.28386705727754</v>
+        <v>-5.731737646888847</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-5.908037016563917</v>
+        <v>-6.013170944993827</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.548319615847552</v>
+        <v>5.580469085449285</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.4803781551948662</v>
+        <v>-0.5995450340920946</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-5.064912140967492</v>
+        <v>-5.05363837072099</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.47747583401558</v>
+        <v>10.3888024050887</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-4.650279316348022</v>
+        <v>-4.466216488299856</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-6.711009189090417</v>
+        <v>-6.57322473913648</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.03347745752811</v>
+        <v>6.969966062420283</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.417863680021297</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2542802104129153</v>
+        <v>0.2542802104129156</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.3716301335420581</v>
@@ -1411,7 +1411,7 @@
         <v>-0.4675843082423299</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1657037303594283</v>
+        <v>0.1657037303594281</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6634298206317667</v>
+        <v>-0.6672914020934916</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6642906377186294</v>
+        <v>-0.6562844630686732</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1538863150915332</v>
+        <v>-0.1615451893951023</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.40430021271026</v>
+        <v>-0.4008127745043552</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5438935723325227</v>
+        <v>-0.5593951539595591</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04650801311917497</v>
+        <v>0.04926745753002715</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4905954141761307</v>
+        <v>-0.4868228997714081</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5628229527046218</v>
+        <v>-0.5668712946138073</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.01730196672999574</v>
+        <v>0.01399149873955315</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3549927677494228</v>
+        <v>-0.3454767465901804</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3359929602118419</v>
+        <v>-0.3516950742238316</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3371565740929213</v>
+        <v>0.3311125235641477</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.01999263602667967</v>
+        <v>-0.03114702971908536</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.2369710700981328</v>
+        <v>-0.2539480125076946</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5302445871130177</v>
+        <v>0.5365617180444282</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.2455117357835153</v>
+        <v>-0.2307822601781418</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3406068646071987</v>
+        <v>-0.3394477153131009</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3783000319485927</v>
+        <v>0.3598035204566631</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-17.95666013707549</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.914158168600252</v>
+        <v>-3.914158168600257</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.09187967154370424</v>
@@ -1511,7 +1511,7 @@
         <v>-5.282813809862319</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>13.03280031364484</v>
+        <v>13.03280031364485</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-8.767283264280746</v>
@@ -1520,7 +1520,7 @@
         <v>-11.49162592594816</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.596295813993795</v>
+        <v>4.596295813993806</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-23.03188681114065</v>
+        <v>-23.54749857448306</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-23.70129542355765</v>
+        <v>-23.32321353027799</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-9.481341181596479</v>
+        <v>-10.43163361915818</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.708453509270099</v>
+        <v>-5.926726920704314</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-10.54600001032491</v>
+        <v>-11.66399464812118</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.826101081970655</v>
+        <v>7.584251316805396</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-13.00828830603861</v>
+        <v>-13.12631567957136</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-15.57170944629164</v>
+        <v>-15.42179060964493</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.8075110331400909</v>
+        <v>0.7762877330875398</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-12.82025516039112</v>
+        <v>-12.4198671893652</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-12.39570830597891</v>
+        <v>-12.28819778206222</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.508365297332181</v>
+        <v>1.863338589424636</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.254578067723533</v>
+        <v>6.378441669275979</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8442813862003783</v>
+        <v>0.1305976364417733</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>18.09424713661262</v>
+        <v>18.164644648002</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-4.628975233633977</v>
+        <v>-4.719148910310375</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-7.139528990100759</v>
+        <v>-7.575012894461568</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.328990292286427</v>
+        <v>8.759662362769259</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.5913562065260335</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1289026861708654</v>
+        <v>-0.1289026861708656</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.00350518113689691</v>
@@ -1616,7 +1616,7 @@
         <v>-0.2015377178101888</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4971973131031753</v>
+        <v>0.4971973131031757</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.3104176376260082</v>
@@ -1625,7 +1625,7 @@
         <v>-0.406876710251618</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1627381305475949</v>
+        <v>0.1627381305475953</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6928228748452161</v>
+        <v>-0.697875519321049</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6958845753720935</v>
+        <v>-0.7032918414817017</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2789738487022855</v>
+        <v>-0.302455020422124</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1921118051108914</v>
+        <v>-0.2010655557465843</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3675438181071287</v>
+        <v>-0.391908735400308</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2540815436785388</v>
+        <v>0.2558603049392625</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4298530646953424</v>
+        <v>-0.4307119400522454</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5107184019201939</v>
+        <v>-0.5121773329166937</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.02640762839281323</v>
+        <v>0.02564570392768628</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.4606570927407732</v>
+        <v>-0.4572199928874532</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.4464848807969533</v>
+        <v>-0.4532074425492714</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.05482405489040314</v>
+        <v>0.06953503237145645</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2725256845330721</v>
+        <v>0.2846139572289068</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03872731195927993</v>
+        <v>0.01580484583572262</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8072868124178649</v>
+        <v>0.7947903289141927</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1783071603379081</v>
+        <v>-0.1787177365595083</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2787651375043988</v>
+        <v>-0.2822761208549904</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3304931305153767</v>
+        <v>0.3431433621240612</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-13.10543230011923</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.5529010009144131</v>
+        <v>0.5529010009144075</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-6.061845924403864</v>
@@ -1725,7 +1725,7 @@
         <v>-15.94193622237615</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>9.524744664960084</v>
+        <v>9.524744664960078</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-6.82312995188204</v>
@@ -1734,7 +1734,7 @@
         <v>-14.70819418161545</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>4.99739839895188</v>
+        <v>4.997398398951885</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-15.08016275734514</v>
+        <v>-14.18632733004078</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-19.46677760945318</v>
+        <v>-19.86162302402317</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.537309162046467</v>
+        <v>-5.916876973135579</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-12.76562677525884</v>
+        <v>-13.18005576279307</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-22.54498087355234</v>
+        <v>-22.23516153785743</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>3.09635814245895</v>
+        <v>3.362815165522596</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-12.03783202484447</v>
+        <v>-11.88268864754092</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-19.21595953676288</v>
+        <v>-19.37893619282052</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.0301268246016</v>
+        <v>0.8302735368848877</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-1.182882484071272</v>
+        <v>-1.158972809749377</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-7.146891948027199</v>
+        <v>-6.752405957359789</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.580388457065379</v>
+        <v>6.373423381631609</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.8743699375561385</v>
+        <v>0.8376006946123495</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-9.338200102322618</v>
+        <v>-9.958803911519107</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>15.1182966995628</v>
+        <v>15.07470500154117</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-2.206359150985727</v>
+        <v>-1.858341994055575</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-10.15332831746936</v>
+        <v>-10.49443208236929</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>9.925244314761692</v>
+        <v>9.720871714230247</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.4957989245895839</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.02091710638613398</v>
+        <v>0.02091710638613377</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.1630334443418466</v>
@@ -1830,7 +1830,7 @@
         <v>-0.4287586329683279</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.256168162069837</v>
+        <v>0.2561681620698368</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.2116809576288547</v>
@@ -1839,7 +1839,7 @@
         <v>-0.456307391374939</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1550394153714233</v>
+        <v>0.1550394153714235</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5014078172078686</v>
+        <v>-0.4757574230286105</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6466819685954341</v>
+        <v>-0.6426476026264267</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1808175375023072</v>
+        <v>-0.1936257278735441</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3159517172069234</v>
+        <v>-0.3285642646320897</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5512837538027325</v>
+        <v>-0.55205959037973</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07515789162419154</v>
+        <v>0.0831371870699235</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3385652927028617</v>
+        <v>-0.3393117298323153</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5539047367430259</v>
+        <v>-0.5545271298318611</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.02758361993251417</v>
+        <v>0.0240351738731425</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.04376294151649114</v>
+        <v>-0.0433855036543028</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.3004367578882018</v>
+        <v>-0.2786029878520107</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3045433038738328</v>
+        <v>0.2811960769063246</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.02761015373328738</v>
+        <v>0.02319743571642123</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.273885154508055</v>
+        <v>-0.2903179445534596</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4572801020659339</v>
+        <v>0.448441698664477</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.06646057479486192</v>
+        <v>-0.05741391779080585</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.3434301064898694</v>
+        <v>-0.3481129524298763</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.3408836095317734</v>
+        <v>0.335833669671134</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-15.00951413195182</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5.266038092738112</v>
+        <v>5.266038092738107</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>3.107958654450005</v>
@@ -1939,7 +1939,7 @@
         <v>-5.390315721293804</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>21.9488914013404</v>
+        <v>21.94889140134039</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-2.993994950880219</v>
@@ -1948,7 +1948,7 @@
         <v>-9.158864447159132</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>15.25073079996783</v>
+        <v>15.25073079996782</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-20.72734811039468</v>
+        <v>-21.02385329035905</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-22.70896829727168</v>
+        <v>-23.6794804041741</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.020080273342746</v>
+        <v>-2.735757747051866</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.583151417976734</v>
+        <v>-5.255433052896919</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-13.09058399744805</v>
+        <v>-13.6445942158633</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>15.35843933026239</v>
+        <v>15.3761809005383</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-8.75505458702874</v>
+        <v>-8.462204919750452</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-14.41554475580194</v>
+        <v>-15.06959324256198</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>10.31565534957839</v>
+        <v>9.837155031918028</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-4.282862737832128</v>
+        <v>-4.631753145367962</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-6.740429215248494</v>
+        <v>-6.81262583716301</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13.04844272215849</v>
+        <v>12.97076373319957</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10.13280549988966</v>
+        <v>10.3268536820895</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.696758378199687</v>
+        <v>1.673509844748148</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>27.55559527016317</v>
+        <v>28.07501038757221</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.431808212276854</v>
+        <v>2.766206912093148</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-3.431222832653153</v>
+        <v>-3.73039323907959</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>19.95001635645789</v>
+        <v>20.10130065297801</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.4347411364102152</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.1525274812155924</v>
+        <v>0.1525274812155922</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.08668990266530811</v>
@@ -2044,7 +2044,7 @@
         <v>-0.150351403338386</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6122176871527059</v>
+        <v>0.6122176871527056</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.08472078261826925</v>
@@ -2053,7 +2053,7 @@
         <v>-0.2591674924601458</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.4315484394834938</v>
+        <v>0.4315484394834935</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5356642680785155</v>
+        <v>-0.5509252894775507</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5798010252506816</v>
+        <v>-0.5932143736555422</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.04561506195469014</v>
+        <v>-0.07136448383212514</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1129071854189305</v>
+        <v>-0.1246776525882312</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3216999644256863</v>
+        <v>-0.3428761266385248</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3788783681619062</v>
+        <v>0.379394780961504</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2199568045509366</v>
+        <v>-0.2245183179034219</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3748152430472126</v>
+        <v>-0.3882510443284</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2696872148429298</v>
+        <v>0.2516699112145951</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1207611175766163</v>
+        <v>-0.1515776205995271</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.2343339159463265</v>
+        <v>-0.2325361656012522</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4616997625093792</v>
+        <v>0.4497396441482466</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3113409413079677</v>
+        <v>0.3260089655971435</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.09133907973108389</v>
+        <v>0.05625168881510799</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8790046318559341</v>
+        <v>0.9037615239051867</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.07908457819070522</v>
+        <v>0.08799527825841771</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1073384514210212</v>
+        <v>-0.116532597603874</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.6337599996562465</v>
+        <v>0.6267126296368465</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-5.340418799283678</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>11.36137186922807</v>
+        <v>11.36137186922808</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-4.064974707535255</v>
@@ -2162,7 +2162,7 @@
         <v>-6.635903669587606</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>7.012548860761641</v>
+        <v>7.012548860761636</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-8.681516683518431</v>
+        <v>-8.700826026289418</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-9.584483346354375</v>
+        <v>-9.557750949415313</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.5241594416072171</v>
+        <v>0.4798565368340457</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.991918371534685</v>
+        <v>-2.792947881572788</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-6.978523048715181</v>
+        <v>-7.263004217022146</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>9.44251045014453</v>
+        <v>9.494904724380062</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-5.338244833321701</v>
+        <v>-5.373129774314584</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-7.901507126246393</v>
+        <v>-7.867802248375644</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>5.663639422720211</v>
+        <v>5.698619557546883</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-5.596035709460838</v>
+        <v>-5.450823565116044</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-6.355488338273818</v>
+        <v>-6.38807115958283</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.385340342902444</v>
+        <v>4.040173583540071</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.8000359575584898</v>
+        <v>0.7664172219601502</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-3.519197255170162</v>
+        <v>-3.564284392161087</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>13.14831164383488</v>
+        <v>13.44661288881157</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-2.885629106314433</v>
+        <v>-2.80761807492027</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-5.382944837509069</v>
+        <v>-5.429821804595076</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>8.416463257998066</v>
+        <v>8.440254836056369</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.2775424709975345</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.5904524234935262</v>
+        <v>0.5904524234935268</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.2291924647865672</v>
@@ -2267,7 +2267,7 @@
         <v>-0.3741472524539242</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.3953833599148552</v>
+        <v>0.3953833599148548</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5086110283759897</v>
+        <v>-0.511840605833535</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5626901108576771</v>
+        <v>-0.5619006347939896</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.03239554273501855</v>
+        <v>0.0306461380816729</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1499484157988607</v>
+        <v>-0.1389005384868293</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3474075568756422</v>
+        <v>-0.3621486145938123</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4652845572200422</v>
+        <v>0.4659596874717798</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.290236239791675</v>
+        <v>-0.2909911225499706</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.4251647713000814</v>
+        <v>-0.4262225087466893</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.3094198647854285</v>
+        <v>0.3062053076882479</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.3639505837078729</v>
+        <v>-0.3560331550787582</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.4173263125205601</v>
+        <v>-0.4192027050622816</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2888159833331937</v>
+        <v>0.2685312560659265</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.04404664841476543</v>
+        <v>0.04045969770909651</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.1898077586816076</v>
+        <v>-0.194601651811518</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.7279866425013184</v>
+        <v>0.7281739528661447</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.166974806608747</v>
+        <v>-0.1621197107254959</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.3139102047828223</v>
+        <v>-0.3175247769438817</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.4924517842045966</v>
+        <v>0.4915356513790248</v>
       </c>
     </row>
     <row r="52">
